--- a/data/case1/2/Qlm2_13.xlsx
+++ b/data/case1/2/Qlm2_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.068162632785259802</v>
+        <v>-0.11550149516097719</v>
       </c>
       <c r="B1" s="0">
-        <v>0.068139838048374202</v>
+        <v>0.11544043310843932</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.046039183811910966</v>
+        <v>-0.093335444317927063</v>
       </c>
       <c r="B2" s="0">
-        <v>0.045992692738554553</v>
+        <v>0.093164298046992222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.069439945114892154</v>
+        <v>-0.075334803093461744</v>
       </c>
       <c r="B3" s="0">
-        <v>0.069194383287692673</v>
+        <v>0.075169995734574613</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.061194383375013928</v>
+        <v>-0.067169995774468916</v>
       </c>
       <c r="B4" s="0">
-        <v>0.060857306249749499</v>
+        <v>0.066668358696714947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0578573062921377</v>
+        <v>-0.063668358716949314</v>
       </c>
       <c r="B5" s="0">
-        <v>0.056720709439004757</v>
+        <v>0.061957177864607083</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.052645040816360122</v>
+        <v>-0.041402982331161908</v>
       </c>
       <c r="B6" s="0">
-        <v>0.052059698468244875</v>
+        <v>0.040987864040467059</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.042059698594645756</v>
+        <v>-0.030987864095696427</v>
       </c>
       <c r="B7" s="0">
-        <v>0.041912375884221031</v>
+        <v>0.030892209103662527</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.031912376016261845</v>
+        <v>-0.020892209160482622</v>
       </c>
       <c r="B8" s="0">
-        <v>0.031635120030641506</v>
+        <v>0.020737361386611752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029635120090755418</v>
+        <v>-0.018737361410777975</v>
       </c>
       <c r="B9" s="0">
-        <v>0.029402233619359119</v>
+        <v>0.01861541615217055</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.027402233686693478</v>
+        <v>-0.016615416177847564</v>
       </c>
       <c r="B10" s="0">
-        <v>0.027388056131114169</v>
+        <v>0.016607792398044552</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024388056209280862</v>
+        <v>-0.013607792428008914</v>
       </c>
       <c r="B11" s="0">
-        <v>0.02436248698869381</v>
+        <v>0.013596387450410141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020862487073465719</v>
+        <v>-0.010096387482867453</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020668751982528821</v>
+        <v>0.010021212099727173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017168752074585569</v>
+        <v>-0.0065212121333653172</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017080912612624566</v>
+        <v>0.0064931800795795525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090809127511599641</v>
+        <v>-0.0090817727691954175</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090525987242413564</v>
+        <v>0.0090530463298028607</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080525987946726829</v>
+        <v>-0.0080530463533907692</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080343539614124992</v>
+        <v>0.0080344892168735527</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060343540429190767</v>
+        <v>-0.0060344892452137699</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060031386063457148</v>
+        <v>0.0060035356643011184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040031386896206556</v>
+        <v>-0.0040035356932675015</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999998964779238</v>
+        <v>0.0039999999622590821</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016100654296238304</v>
+        <v>-0.016104988816852739</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016090453436955698</v>
+        <v>0.016091530259814135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012090453477269225</v>
+        <v>-0.012091530277658968</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012015804206821468</v>
+        <v>0.012016810489242413</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080158042506806026</v>
+        <v>-0.008016810508374661</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080055166758299379</v>
+        <v>0.0080056818224853998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040055167202206476</v>
+        <v>-0.0040056818418170437</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999552327026</v>
+        <v>0.0039999999805155895</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0093067768210648438</v>
+        <v>-0.045703650338701607</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.0096046422417757071</v>
+        <v>0.04549278521200506</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.014604642188167816</v>
+        <v>-0.040492785238618545</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.015202244836860501</v>
+        <v>0.040097817536507208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020096995534428785</v>
+        <v>-0.020097817630094106</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999796689316</v>
+        <v>0.019999999905198074</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.00207566866745168</v>
+        <v>-0.018554195553683428</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0020721326459032241</v>
+        <v>0.018506032642488179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.00042786730431032538</v>
+        <v>-0.016006032665087488</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.00043191785634988378</v>
+        <v>0.015947498316982944</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0029319178064812768</v>
+        <v>-0.013447498339905994</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.0029569618125901975</v>
+        <v>0.013122255927460635</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0049569617678590916</v>
+        <v>-0.011122255949429061</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.0049667596658808932</v>
+        <v>0.010918640856397488</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.011966759572115571</v>
+        <v>-0.081347710440050847</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.011968141553501788</v>
+        <v>0.081166827351850657</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.071968140936370606</v>
+        <v>-0.021166827626636131</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.072309699874726796</v>
+        <v>0.021023023356466553</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.079309699795111044</v>
+        <v>-0.014023023405266954</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.079478259362765868</v>
+        <v>0.014001308501502052</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.03116740331471668</v>
+        <v>-0.0040013085635077772</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.031218792413589824</v>
+        <v>0.0039999999636890493</v>
       </c>
     </row>
   </sheetData>
